--- a/project pd sem 1/data.xlsx
+++ b/project pd sem 1/data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,6 +626,43 @@
         </is>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Monday(03/13/23)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20:52:57</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Rizky Yanuar Kristianto</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>22031554017</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>rizky.22017@mhs.unesa.ac.id</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Praktikum PD</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Jalan Tambak Bayan, RW 02, Alon-Alon Contong, Bubutan, Surabaya, Jawa Timur, 60161, Indonesia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/project pd sem 1/data.xlsx
+++ b/project pd sem 1/data.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +663,43 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Wednesday(03/22/23)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>17:39:48</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Rizky Yanuar Kristianto</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22031554017</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>rizky.22017@mhs.unesa.ac.id</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Probabilitas</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Jalan Tambak Bayan, RW 02, Alon-Alon Contong, Bubutan, Surabaya, Jawa Timur, 60161, Indonesia</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
